--- a/data/input/preprocessing/process/Process_PLA.xlsx
+++ b/data/input/preprocessing/process/Process_PLA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/process_format/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/input/preprocessing/process/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D02562-E3EB-4449-931E-720E8C04797B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0158E08-D03A-5942-A771-F0F2E6ECE9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12100" yWindow="540" windowWidth="21260" windowHeight="17400" activeTab="1" xr2:uid="{968F1003-936B-E54A-97BA-F1A20154874A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21260" windowHeight="17400" activeTab="1" xr2:uid="{968F1003-936B-E54A-97BA-F1A20154874A}"/>
   </bookViews>
   <sheets>
     <sheet name="process_params" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -467,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D55A5A-B7EB-8045-ACFE-203E25D14010}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -550,6 +549,12 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <f>C4-B4</f>
+        <v>25.332000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -560,7 +565,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -589,15 +594,9 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
-        <v>2</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="7">
         <v>1.75</v>
       </c>
@@ -609,15 +608,9 @@
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7">
-        <v>-2E-3</v>
-      </c>
-      <c r="C3" s="7">
-        <v>2E-3</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
       <c r="E3">
         <v>0</v>
       </c>
@@ -629,21 +622,15 @@
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>60</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
       <c r="E4">
         <f>process_params!B4</f>
         <v>29.693999999999999</v>
       </c>
       <c r="F4" s="7">
-        <v>30</v>
+        <v>25.332000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/preprocessing/process/Process_PLA.xlsx
+++ b/data/input/preprocessing/process/Process_PLA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/input/preprocessing/process/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0158E08-D03A-5942-A771-F0F2E6ECE9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5BAB0C-4709-D74B-A3C7-FFF59E016409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21260" windowHeight="17400" activeTab="1" xr2:uid="{968F1003-936B-E54A-97BA-F1A20154874A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21260" windowHeight="17400" xr2:uid="{968F1003-936B-E54A-97BA-F1A20154874A}"/>
   </bookViews>
   <sheets>
     <sheet name="process_params" sheetId="1" r:id="rId1"/>
@@ -466,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D55A5A-B7EB-8045-ACFE-203E25D14010}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -549,12 +549,6 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C7">
-        <f>C4-B4</f>
-        <v>25.332000000000004</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -564,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC096E45-1FBF-BD41-9231-6E8C688583E2}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
